--- a/Data/Excel/Buff.xlsx
+++ b/Data/Excel/Buff.xlsx
@@ -225,6 +225,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.41954912458147" customWidth="1"/>
+    <col min="3" max="3" width="20.6995261056083" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.65144293648856" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -425,6 +432,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.41954912458147" customWidth="1"/>
+    <col min="3" max="3" width="20.6995261056083" customWidth="1"/>
+    <col min="4" max="4" width="10.7072459629604" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/Data/Excel/Buff.xlsx
+++ b/Data/Excel/Buff.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,12 @@
     <t>Buff类型</t>
   </si>
   <si>
+    <t>测试list列</t>
+  </si>
+  <si>
+    <t>测试类列</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -39,115 +45,179 @@
     <t>Assets/GameData/...0</t>
   </si>
   <si>
-    <t>1.267663</t>
+    <t>0.9732068</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>测试0;测试q0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0;name0
+4;name1
+2;name2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>全BUFF1</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...1</t>
+  </si>
+  <si>
+    <t>4.236865</t>
+  </si>
+  <si>
+    <t>Ranshao</t>
+  </si>
+  <si>
+    <t>测试1;测试q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;name0
+4;name1
+2;name2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>全BUFF2</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...2</t>
+  </si>
+  <si>
+    <t>2.425144</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>测试2;测试q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0;name0
+5;name1
+5;name2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>全BUFF3</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...3</t>
+  </si>
+  <si>
+    <t>9.455368</t>
+  </si>
+  <si>
+    <t>测试3;测试q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4;name0
+1;name1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>全BUFF4</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...4</t>
+  </si>
+  <si>
+    <t>5.202858</t>
+  </si>
+  <si>
+    <t>测试4;测试q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;name0
+3;name1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>全BUFF5</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...5</t>
+  </si>
+  <si>
+    <t>9.238022</t>
+  </si>
+  <si>
+    <t>测试5;测试q5</t>
+  </si>
+  <si>
+    <t>3;name0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>全BUFF6</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...6</t>
+  </si>
+  <si>
+    <t>9.502794</t>
+  </si>
+  <si>
+    <t>测试6;测试q6</t>
+  </si>
+  <si>
+    <t>2;name0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>全BUFF7</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...7</t>
+  </si>
+  <si>
+    <t>6.734316</t>
+  </si>
+  <si>
+    <t>测试7;测试q7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>全BUFF8</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...8</t>
+  </si>
+  <si>
+    <t>7.493928</t>
   </si>
   <si>
     <t>Bingdong</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>全BUFF1</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...1</t>
-  </si>
-  <si>
-    <t>5.212603</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>全BUFF2</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...2</t>
-  </si>
-  <si>
-    <t>9.682048</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>全BUFF3</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...3</t>
-  </si>
-  <si>
-    <t>0.7820609</t>
-  </si>
-  <si>
-    <t>Ranshao</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>全BUFF4</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...4</t>
-  </si>
-  <si>
-    <t>1.501591</t>
-  </si>
-  <si>
-    <t>Du</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>全BUFF5</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...5</t>
-  </si>
-  <si>
-    <t>0.5272873</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>全BUFF6</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...6</t>
-  </si>
-  <si>
-    <t>8.423553</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>全BUFF7</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...7</t>
-  </si>
-  <si>
-    <t>1.949315</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>全BUFF8</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...8</t>
-  </si>
-  <si>
-    <t>8.345733</t>
+    <t>测试8;测试q8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2;name0
+1;name1
+4;name2</t>
   </si>
   <si>
     <t>10</t>
@@ -159,22 +229,58 @@
     <t>Assets/GameData/...9</t>
   </si>
   <si>
-    <t>8.85298</t>
-  </si>
-  <si>
-    <t>4.915029</t>
-  </si>
-  <si>
-    <t>8.879028</t>
-  </si>
-  <si>
-    <t>4.809762</t>
-  </si>
-  <si>
-    <t>9.020306</t>
-  </si>
-  <si>
-    <t>0.8799396</t>
+    <t>4.165529</t>
+  </si>
+  <si>
+    <t>测试9;测试q9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4;name0
+5;name1
+2;name2</t>
+  </si>
+  <si>
+    <t>7.60559</t>
+  </si>
+  <si>
+    <t>测试a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2;name0
+4;name1</t>
+  </si>
+  <si>
+    <t>9.194702</t>
+  </si>
+  <si>
+    <t>测试a1</t>
+  </si>
+  <si>
+    <t>2.500201</t>
+  </si>
+  <si>
+    <t>测试a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4;name0
+2;name1
+6;name2</t>
+  </si>
+  <si>
+    <t>9.497474</t>
+  </si>
+  <si>
+    <t>测试a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2;name0
+3;name1</t>
+  </si>
+  <si>
+    <t>4.668671</t>
+  </si>
+  <si>
+    <t>测试a4</t>
   </si>
 </sst>
 </file>
@@ -208,8 +314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -229,8 +338,10 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.41954912458147" customWidth="1"/>
     <col min="3" max="3" width="20.6995261056083" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.65144293648856" customWidth="1"/>
+    <col min="4" max="4" width="9.61358969552176" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.8039419991629" customWidth="1"/>
+    <col min="7" max="7" width="9.14127567836216" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -249,175 +360,241 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -427,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,8 +613,10 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.41954912458147" customWidth="1"/>
     <col min="3" max="3" width="20.6995261056083" customWidth="1"/>
-    <col min="4" max="4" width="10.7072459629604" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.61358969552176" customWidth="1"/>
+    <col min="5" max="5" width="9.65144293648856" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,90 +635,126 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Buff.xlsx
+++ b/Data/Excel/Buff.xlsx
@@ -5,22 +5,60 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="所有Buff配置" sheetId="1" r:id="rId1"/>
-    <sheet name="怪物Buff配置" sheetId="2" r:id="rId3"/>
+    <sheet name="所有buff的测试list" sheetId="1" r:id="rId1"/>
+    <sheet name="所有Buff配置" sheetId="2" r:id="rId3"/>
+    <sheet name="怪物buff的测试list" sheetId="3" r:id="rId4"/>
+    <sheet name="怪物Buff配置" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>TestID</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>name0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>预置路径</t>
   </si>
   <si>
@@ -33,12 +71,6 @@
     <t>测试list列</t>
   </si>
   <si>
-    <t>所有buff的测试list</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>全BUFF0</t>
   </si>
   <si>
@@ -54,12 +86,6 @@
     <t>测试0;测试q0</t>
   </si>
   <si>
-    <t>0;name0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>全BUFF1</t>
   </si>
   <si>
@@ -72,14 +98,6 @@
     <t>测试1;测试q1</t>
   </si>
   <si>
-    <t xml:space="preserve">0;name0
-1;name1
-5;name2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>全BUFF2</t>
   </si>
   <si>
@@ -95,13 +113,6 @@
     <t>测试2;测试q2</t>
   </si>
   <si>
-    <t xml:space="preserve">1;name0
-1;name1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>全BUFF3</t>
   </si>
   <si>
@@ -117,12 +128,6 @@
     <t>测试3;测试q3</t>
   </si>
   <si>
-    <t>2;name0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>全BUFF4</t>
   </si>
   <si>
@@ -135,12 +140,6 @@
     <t>测试4;测试q4</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>全BUFF5</t>
   </si>
   <si>
@@ -153,11 +152,6 @@
     <t>测试5;测试q5</t>
   </si>
   <si>
-    <t xml:space="preserve">1;name0
-3;name1
-3;name2</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>测试7;测试q7</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>全BUFF8</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>测试8;测试q8</t>
   </si>
   <si>
-    <t>4;name0</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -224,20 +212,12 @@
     <t>测试9;测试q9</t>
   </si>
   <si>
-    <t>怪物buff的测试list</t>
-  </si>
-  <si>
     <t>5.286634</t>
   </si>
   <si>
     <t>测试a0</t>
   </si>
   <si>
-    <t xml:space="preserve">2;name0
-5;name1
-6;name2</t>
-  </si>
-  <si>
     <t>2.182257</t>
   </si>
   <si>
@@ -250,11 +230,6 @@
     <t>测试a2</t>
   </si>
   <si>
-    <t xml:space="preserve">4;name0
-3;name1
-5;name2</t>
-  </si>
-  <si>
     <t>7.901031</t>
   </si>
   <si>
@@ -265,10 +240,6 @@
   </si>
   <si>
     <t>测试a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2;name0
-5;name1</t>
   </si>
 </sst>
 </file>
@@ -302,11 +273,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,7 +285,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -329,7 +447,6 @@
     <col min="4" max="4" width="10.7072459629604" customWidth="1"/>
     <col min="5" max="5" width="9.72544588361468" customWidth="1"/>
     <col min="6" max="6" width="14.8039419991629" customWidth="1"/>
-    <col min="7" max="7" width="19.3391919817243" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -337,142 +454,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>41</v>
@@ -484,105 +583,90 @@
         <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="E10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="E11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -590,9 +674,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +827,6 @@
     <col min="4" max="4" width="9.61358969552176" customWidth="1"/>
     <col min="5" max="5" width="9.72544588361468" customWidth="1"/>
     <col min="6" max="6" width="11.0656618390765" customWidth="1"/>
-    <col min="7" max="7" width="19.3391919817243" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -612,137 +834,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
